--- a/甄攀星/Test_XueLi/data/user.xlsx
+++ b/甄攀星/Test_XueLi/data/user.xlsx
@@ -22,10 +22,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>913884616@qq.com</t>
+    <t>2784038315@qq.com</t>
   </si>
   <si>
-    <t>654321xiangshang</t>
+    <t>Zhen0820</t>
   </si>
 </sst>
 </file>
@@ -34,11 +34,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,11 +47,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,28 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,98 +117,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +138,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -207,37 +200,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,145 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,15 +415,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -461,16 +469,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,173 +491,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,7 +970,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -991,7 +987,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -999,6 +995,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="2784038315@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/甄攀星/Test_XueLi/data/user.xlsx
+++ b/甄攀星/Test_XueLi/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="13511" windowHeight="3767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,14 +55,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -72,21 +64,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +78,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -108,24 +139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,37 +163,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +200,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,13 +394,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,30 +419,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -461,24 +450,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +467,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,16 +511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,115 +529,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,10 +970,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
@@ -996,7 +996,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="2784038315@qq.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="2784038315@qq.com" tooltip="mailto:2784038315@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/甄攀星/Test_XueLi/data/user.xlsx
+++ b/甄攀星/Test_XueLi/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13511" windowHeight="3767"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,6 +55,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -64,7 +72,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,59 +100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -139,9 +108,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +147,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,13 +178,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,66 +200,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,120 +381,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,17 +394,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,15 +415,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -450,11 +461,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,30 +491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,16 +511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,115 +529,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,10 +970,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
@@ -996,7 +996,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="2784038315@qq.com" tooltip="mailto:2784038315@qq.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="2784038315@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
